--- a/datf_core/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
+++ b/datf_core/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\test\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\datf_core\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2450C0-7DE5-42E3-854A-435A86279EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C356B2-CD6F-4D40-ACFF-A2A2C0C659FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
   <sheets>
     <sheet name="MappingConfiguration" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1565" uniqueCount="151">
   <si>
     <t>mappingname</t>
   </si>
@@ -315,9 +315,6 @@
   </si>
   <si>
     <t>,</t>
-  </si>
-  <si>
-    <t>/app/test/data/source</t>
   </si>
   <si>
     <t>/app/test/data/target</t>
@@ -640,9 +637,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -680,7 +677,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -786,7 +783,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -928,7 +925,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E28631E-9A8B-4B40-8EC8-AD01C3B31856}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -985,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1015,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1065,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1101,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1109,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1151,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1193,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,7 +1198,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1324,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F175362-E919-4E0B-BAAB-8F57DA09A5DB}">
   <dimension ref="A1:M151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,7 +1408,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1431,13 +1428,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>67</v>
@@ -1451,13 +1448,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>67</v>
@@ -1471,13 +1468,13 @@
         <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>67</v>
@@ -1491,13 +1488,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>67</v>
@@ -1511,13 +1508,13 @@
         <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>67</v>
@@ -1531,7 +1528,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
@@ -1551,7 +1548,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -1571,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
@@ -1591,7 +1588,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
@@ -1611,7 +1608,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
@@ -1631,7 +1628,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -1651,13 +1648,13 @@
         <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6">
         <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>67</v>
@@ -1671,13 +1668,13 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>67</v>
@@ -1691,13 +1688,13 @@
         <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="6">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>67</v>
@@ -1711,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="6">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>67</v>
@@ -1731,13 +1728,13 @@
         <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6">
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>67</v>
@@ -1751,13 +1748,13 @@
         <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6">
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>67</v>
@@ -1771,7 +1768,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
@@ -1791,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6">
         <v>21</v>
@@ -1811,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6">
         <v>22</v>
@@ -1831,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6">
         <v>23</v>
@@ -1851,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -1871,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6">
         <v>25</v>
@@ -1891,13 +1888,13 @@
         <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6">
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>67</v>
@@ -1911,13 +1908,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="6">
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>67</v>
@@ -1931,13 +1928,13 @@
         <v>65</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>67</v>
@@ -1951,13 +1948,13 @@
         <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="6">
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>67</v>
@@ -1971,13 +1968,13 @@
         <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="6">
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>67</v>
@@ -1991,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6">
         <v>31</v>
@@ -2011,7 +2008,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="6">
         <v>32</v>
@@ -2031,7 +2028,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6">
         <v>33</v>
@@ -2051,7 +2048,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6">
         <v>34</v>
@@ -2071,7 +2068,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="6">
         <v>35</v>
@@ -2091,13 +2088,13 @@
         <v>65</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="6">
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>67</v>
@@ -2111,13 +2108,13 @@
         <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6">
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>67</v>
@@ -2131,13 +2128,13 @@
         <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="6">
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>67</v>
@@ -2151,13 +2148,13 @@
         <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="6">
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>67</v>
@@ -2171,13 +2168,13 @@
         <v>65</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="6">
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>67</v>
@@ -2191,7 +2188,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6">
         <v>41</v>
@@ -2211,7 +2208,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="6">
         <v>42</v>
@@ -2231,7 +2228,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6">
         <v>43</v>
@@ -2251,7 +2248,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="6">
         <v>44</v>
@@ -2271,7 +2268,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="6">
         <v>45</v>
@@ -2291,13 +2288,13 @@
         <v>65</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="6">
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>67</v>
@@ -2311,7 +2308,7 @@
         <v>65</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="6">
         <v>47</v>
@@ -2331,13 +2328,13 @@
         <v>65</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="6">
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>67</v>
@@ -2351,7 +2348,7 @@
         <v>65</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="6">
         <v>49</v>
@@ -2371,7 +2368,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="6">
         <v>50</v>
@@ -2385,10 +2382,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>68</v>
@@ -2402,13 +2399,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -2422,19 +2419,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D54" s="6">
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>67</v>
@@ -2442,19 +2439,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D55" s="6">
         <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>67</v>
@@ -2462,19 +2459,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C56" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>67</v>
@@ -2482,19 +2479,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>67</v>
@@ -2502,19 +2499,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D58" s="6">
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>67</v>
@@ -2522,13 +2519,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D59" s="6">
         <v>8</v>
@@ -2542,13 +2539,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D60" s="6">
         <v>9</v>
@@ -2562,13 +2559,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D61" s="6">
         <v>10</v>
@@ -2582,13 +2579,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D62" s="6">
         <v>11</v>
@@ -2602,13 +2599,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D63" s="6">
         <v>12</v>
@@ -2622,13 +2619,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D64" s="6">
         <v>13</v>
@@ -2642,19 +2639,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D65" s="6">
         <v>14</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>67</v>
@@ -2662,19 +2659,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D66" s="6">
         <v>15</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>67</v>
@@ -2682,19 +2679,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="6">
         <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>67</v>
@@ -2702,19 +2699,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D68" s="6">
         <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>67</v>
@@ -2722,19 +2719,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D69" s="6">
         <v>18</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>67</v>
@@ -2742,19 +2739,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C70" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D70" s="6">
         <v>19</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>67</v>
@@ -2762,13 +2759,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" s="6">
         <v>20</v>
@@ -2782,13 +2779,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C72" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D72" s="6">
         <v>21</v>
@@ -2802,13 +2799,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C73" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D73" s="6">
         <v>22</v>
@@ -2822,13 +2819,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C74" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D74" s="6">
         <v>23</v>
@@ -2842,13 +2839,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C75" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D75" s="6">
         <v>24</v>
@@ -2862,13 +2859,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D76" s="6">
         <v>25</v>
@@ -2882,19 +2879,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="6">
         <v>26</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>67</v>
@@ -2902,19 +2899,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D78" s="6">
         <v>27</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>67</v>
@@ -2922,19 +2919,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D79" s="6">
         <v>28</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>67</v>
@@ -2942,19 +2939,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C80" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D80" s="6">
         <v>29</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>67</v>
@@ -2962,19 +2959,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D81" s="6">
         <v>30</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
@@ -2982,13 +2979,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C82" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" s="6">
         <v>31</v>
@@ -3002,13 +2999,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D83" s="6">
         <v>32</v>
@@ -3022,13 +3019,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C84" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D84" s="6">
         <v>33</v>
@@ -3042,13 +3039,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C85" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D85" s="6">
         <v>34</v>
@@ -3062,13 +3059,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D86" s="6">
         <v>35</v>
@@ -3082,19 +3079,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C87" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D87" s="6">
         <v>36</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>67</v>
@@ -3102,19 +3099,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" s="6">
         <v>37</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>67</v>
@@ -3122,19 +3119,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D89" s="6">
         <v>38</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>67</v>
@@ -3142,19 +3139,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D90" s="6">
         <v>39</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>67</v>
@@ -3162,19 +3159,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C91" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D91" s="6">
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>67</v>
@@ -3182,13 +3179,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C92" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D92" s="6">
         <v>41</v>
@@ -3202,13 +3199,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C93" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D93" s="6">
         <v>42</v>
@@ -3222,13 +3219,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C94" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D94" s="6">
         <v>43</v>
@@ -3242,13 +3239,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D95" s="6">
         <v>44</v>
@@ -3262,13 +3259,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C96" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D96" s="6">
         <v>45</v>
@@ -3282,19 +3279,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C97" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D97" s="6">
         <v>46</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>67</v>
@@ -3302,13 +3299,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C98" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D98" s="6">
         <v>47</v>
@@ -3322,19 +3319,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D99" s="6">
         <v>48</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>67</v>
@@ -3342,13 +3339,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" s="6">
         <v>49</v>
@@ -3362,13 +3359,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D101" s="6">
         <v>50</v>
@@ -3405,7 +3402,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D103" s="6">
         <v>2</v>
@@ -3425,13 +3422,13 @@
         <v>87</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D104" s="6">
         <v>3</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>67</v>
@@ -3445,13 +3442,13 @@
         <v>87</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>67</v>
@@ -3465,13 +3462,13 @@
         <v>87</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D106" s="6">
         <v>5</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>67</v>
@@ -3485,13 +3482,13 @@
         <v>87</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>67</v>
@@ -3505,13 +3502,13 @@
         <v>87</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D108" s="6">
         <v>7</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>67</v>
@@ -3525,7 +3522,7 @@
         <v>87</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="6">
         <v>8</v>
@@ -3545,7 +3542,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D110" s="6">
         <v>9</v>
@@ -3565,7 +3562,7 @@
         <v>87</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D111" s="6">
         <v>10</v>
@@ -3585,7 +3582,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D112" s="6">
         <v>11</v>
@@ -3605,7 +3602,7 @@
         <v>87</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D113" s="6">
         <v>12</v>
@@ -3625,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D114" s="6">
         <v>13</v>
@@ -3645,13 +3642,13 @@
         <v>87</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D115" s="6">
         <v>14</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>67</v>
@@ -3665,13 +3662,13 @@
         <v>87</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D116" s="6">
         <v>15</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>67</v>
@@ -3685,13 +3682,13 @@
         <v>87</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D117" s="6">
         <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>67</v>
@@ -3705,13 +3702,13 @@
         <v>87</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D118" s="6">
         <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>67</v>
@@ -3725,13 +3722,13 @@
         <v>87</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" s="6">
         <v>18</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>67</v>
@@ -3745,13 +3742,13 @@
         <v>87</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D120" s="6">
         <v>19</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>67</v>
@@ -3765,7 +3762,7 @@
         <v>87</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D121" s="6">
         <v>20</v>
@@ -3785,7 +3782,7 @@
         <v>87</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D122" s="6">
         <v>21</v>
@@ -3805,7 +3802,7 @@
         <v>87</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D123" s="6">
         <v>22</v>
@@ -3825,7 +3822,7 @@
         <v>87</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D124" s="6">
         <v>23</v>
@@ -3845,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D125" s="6">
         <v>24</v>
@@ -3865,7 +3862,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D126" s="6">
         <v>25</v>
@@ -3885,13 +3882,13 @@
         <v>87</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D127" s="6">
         <v>26</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>67</v>
@@ -3905,13 +3902,13 @@
         <v>87</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D128" s="6">
         <v>27</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>67</v>
@@ -3925,13 +3922,13 @@
         <v>87</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D129" s="6">
         <v>28</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>67</v>
@@ -3945,13 +3942,13 @@
         <v>87</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D130" s="6">
         <v>29</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>67</v>
@@ -3965,13 +3962,13 @@
         <v>87</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="6">
         <v>30</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>67</v>
@@ -3985,7 +3982,7 @@
         <v>87</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D132" s="6">
         <v>31</v>
@@ -4005,7 +4002,7 @@
         <v>87</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D133" s="6">
         <v>32</v>
@@ -4025,7 +4022,7 @@
         <v>87</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D134" s="6">
         <v>33</v>
@@ -4045,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D135" s="6">
         <v>34</v>
@@ -4065,7 +4062,7 @@
         <v>87</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136" s="6">
         <v>35</v>
@@ -4085,13 +4082,13 @@
         <v>87</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D137" s="6">
         <v>36</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>67</v>
@@ -4105,13 +4102,13 @@
         <v>87</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="6">
         <v>37</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>67</v>
@@ -4125,13 +4122,13 @@
         <v>87</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D139" s="6">
         <v>38</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>67</v>
@@ -4145,13 +4142,13 @@
         <v>87</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D140" s="6">
         <v>39</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>67</v>
@@ -4165,13 +4162,13 @@
         <v>87</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D141" s="6">
         <v>40</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>67</v>
@@ -4185,7 +4182,7 @@
         <v>87</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D142" s="6">
         <v>41</v>
@@ -4205,7 +4202,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D143" s="6">
         <v>42</v>
@@ -4225,7 +4222,7 @@
         <v>87</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D144" s="6">
         <v>43</v>
@@ -4245,7 +4242,7 @@
         <v>87</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D145" s="6">
         <v>44</v>
@@ -4265,7 +4262,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D146" s="6">
         <v>45</v>
@@ -4285,13 +4282,13 @@
         <v>87</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D147" s="6">
         <v>46</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>67</v>
@@ -4305,7 +4302,7 @@
         <v>87</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D148" s="6">
         <v>47</v>
@@ -4325,13 +4322,13 @@
         <v>87</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D149" s="6">
         <v>48</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>67</v>
@@ -4345,7 +4342,7 @@
         <v>87</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D150" s="6">
         <v>49</v>
@@ -4365,7 +4362,7 @@
         <v>87</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D151" s="6">
         <v>50</v>
@@ -4468,10 +4465,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
@@ -4500,13 +4497,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>64</v>
@@ -4515,7 +4512,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>82</v>
@@ -4532,13 +4529,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>64</v>
@@ -4547,7 +4544,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>82</v>
@@ -4564,13 +4561,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>64</v>
@@ -4579,7 +4576,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>82</v>
@@ -4596,13 +4593,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -4611,7 +4608,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>82</v>
@@ -4628,13 +4625,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>64</v>
@@ -4643,7 +4640,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -4660,13 +4657,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>64</v>
@@ -4675,7 +4672,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>82</v>
@@ -4692,13 +4689,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>64</v>
@@ -4707,7 +4704,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>82</v>
@@ -4724,13 +4721,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>64</v>
@@ -4739,7 +4736,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>82</v>
@@ -4756,13 +4753,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>64</v>
@@ -4771,7 +4768,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>82</v>
@@ -4788,13 +4785,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>64</v>
@@ -4803,7 +4800,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>82</v>
@@ -4820,13 +4817,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>64</v>
@@ -4835,7 +4832,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>82</v>
@@ -4852,13 +4849,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>64</v>
@@ -4867,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>82</v>
@@ -4884,13 +4881,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>64</v>
@@ -4899,7 +4896,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>82</v>
@@ -4916,13 +4913,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>64</v>
@@ -4931,7 +4928,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>82</v>
@@ -4948,13 +4945,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>64</v>
@@ -4963,7 +4960,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>82</v>
@@ -4980,13 +4977,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>64</v>
@@ -4995,7 +4992,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>82</v>
@@ -5012,13 +5009,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>64</v>
@@ -5027,7 +5024,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>82</v>
@@ -5044,13 +5041,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>64</v>
@@ -5059,7 +5056,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>82</v>
@@ -5076,13 +5073,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>64</v>
@@ -5091,7 +5088,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>82</v>
@@ -5108,13 +5105,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>64</v>
@@ -5123,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>82</v>
@@ -5140,13 +5137,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>64</v>
@@ -5155,7 +5152,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>82</v>
@@ -5172,13 +5169,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>64</v>
@@ -5187,7 +5184,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
@@ -5204,13 +5201,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>64</v>
@@ -5219,7 +5216,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>82</v>
@@ -5236,13 +5233,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
@@ -5251,7 +5248,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>82</v>
@@ -5268,13 +5265,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>64</v>
@@ -5283,7 +5280,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>82</v>
@@ -5300,13 +5297,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>64</v>
@@ -5315,7 +5312,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>82</v>
@@ -5332,13 +5329,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>64</v>
@@ -5347,7 +5344,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>82</v>
@@ -5364,13 +5361,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>64</v>
@@ -5379,7 +5376,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>82</v>
@@ -5396,13 +5393,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>64</v>
@@ -5411,7 +5408,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>82</v>
@@ -5428,13 +5425,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
@@ -5443,7 +5440,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>82</v>
@@ -5460,13 +5457,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>64</v>
@@ -5475,7 +5472,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>82</v>
@@ -5492,13 +5489,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>64</v>
@@ -5507,7 +5504,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>82</v>
@@ -5524,13 +5521,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>64</v>
@@ -5539,7 +5536,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>82</v>
@@ -5556,13 +5553,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>64</v>
@@ -5571,7 +5568,7 @@
         <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>82</v>
@@ -5588,13 +5585,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>64</v>
@@ -5603,7 +5600,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>82</v>
@@ -5620,13 +5617,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>64</v>
@@ -5635,7 +5632,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>82</v>
@@ -5652,13 +5649,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>64</v>
@@ -5667,7 +5664,7 @@
         <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>82</v>
@@ -5684,13 +5681,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
@@ -5699,7 +5696,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>82</v>
@@ -5716,13 +5713,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>64</v>
@@ -5731,7 +5728,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>82</v>
@@ -5748,13 +5745,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>64</v>
@@ -5763,7 +5760,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>82</v>
@@ -5780,13 +5777,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>64</v>
@@ -5795,7 +5792,7 @@
         <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>82</v>
@@ -5812,13 +5809,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>64</v>
@@ -5827,7 +5824,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>82</v>
@@ -5844,13 +5841,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>64</v>
@@ -5859,7 +5856,7 @@
         <v>65</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>82</v>
@@ -5876,13 +5873,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>64</v>
@@ -5891,7 +5888,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>82</v>
@@ -5908,13 +5905,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>64</v>
@@ -5923,7 +5920,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>82</v>
@@ -5940,13 +5937,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>64</v>
@@ -5955,7 +5952,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>82</v>
@@ -5972,13 +5969,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>64</v>
@@ -5987,7 +5984,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>82</v>
@@ -6004,13 +6001,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>64</v>
@@ -6019,7 +6016,7 @@
         <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>82</v>
@@ -6036,13 +6033,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>64</v>
@@ -6051,7 +6048,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>82</v>
@@ -8032,7 +8029,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>64</v>
@@ -8041,7 +8038,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>82</v>
@@ -8064,7 +8061,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>64</v>
@@ -8073,7 +8070,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>82</v>
@@ -8096,7 +8093,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>64</v>
@@ -8105,7 +8102,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>82</v>
@@ -8128,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -8137,7 +8134,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>82</v>
@@ -8160,7 +8157,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>64</v>
@@ -8169,7 +8166,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -8192,7 +8189,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>64</v>
@@ -8201,7 +8198,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>82</v>
@@ -8224,7 +8221,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>64</v>
@@ -8233,7 +8230,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>82</v>
@@ -8256,7 +8253,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>64</v>
@@ -8265,7 +8262,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>82</v>
@@ -8288,7 +8285,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>64</v>
@@ -8297,7 +8294,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>82</v>
@@ -8320,7 +8317,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>64</v>
@@ -8329,7 +8326,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>82</v>
@@ -8352,7 +8349,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>64</v>
@@ -8361,7 +8358,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>82</v>
@@ -8384,7 +8381,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>64</v>
@@ -8393,7 +8390,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>82</v>
@@ -8416,7 +8413,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>64</v>
@@ -8425,7 +8422,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>82</v>
@@ -8448,7 +8445,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>64</v>
@@ -8457,7 +8454,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>82</v>
@@ -8480,7 +8477,7 @@
         <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>64</v>
@@ -8489,7 +8486,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>82</v>
@@ -8512,7 +8509,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>64</v>
@@ -8521,7 +8518,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>82</v>
@@ -8544,7 +8541,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>64</v>
@@ -8553,7 +8550,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>82</v>
@@ -8576,7 +8573,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>64</v>
@@ -8585,7 +8582,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>82</v>
@@ -8608,7 +8605,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>64</v>
@@ -8617,7 +8614,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>82</v>
@@ -8640,7 +8637,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>64</v>
@@ -8649,7 +8646,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>82</v>
@@ -8672,7 +8669,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>64</v>
@@ -8681,7 +8678,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>82</v>
@@ -8704,7 +8701,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>64</v>
@@ -8713,7 +8710,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
@@ -8736,7 +8733,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>64</v>
@@ -8745,7 +8742,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>82</v>
@@ -8768,7 +8765,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
@@ -8777,7 +8774,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>82</v>
@@ -8800,7 +8797,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>64</v>
@@ -8809,7 +8806,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>82</v>
@@ -8832,7 +8829,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>64</v>
@@ -8841,7 +8838,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>82</v>
@@ -8864,7 +8861,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>64</v>
@@ -8873,7 +8870,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>82</v>
@@ -8896,7 +8893,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>64</v>
@@ -8905,7 +8902,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>82</v>
@@ -8928,7 +8925,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>64</v>
@@ -8937,7 +8934,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>82</v>
@@ -8960,7 +8957,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
@@ -8969,7 +8966,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>82</v>
@@ -8992,7 +8989,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>64</v>
@@ -9001,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>82</v>
@@ -9024,7 +9021,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>64</v>
@@ -9033,7 +9030,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>82</v>
@@ -9056,7 +9053,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>64</v>
@@ -9065,7 +9062,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>82</v>
@@ -9088,7 +9085,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>64</v>
@@ -9097,7 +9094,7 @@
         <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>82</v>
@@ -9120,7 +9117,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>64</v>
@@ -9129,7 +9126,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>82</v>
@@ -9152,7 +9149,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>64</v>
@@ -9161,7 +9158,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>82</v>
@@ -9184,7 +9181,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>64</v>
@@ -9193,7 +9190,7 @@
         <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>82</v>
@@ -9216,7 +9213,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
@@ -9225,7 +9222,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>82</v>
@@ -9248,7 +9245,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>64</v>
@@ -9257,7 +9254,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>82</v>
@@ -9280,7 +9277,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>64</v>
@@ -9289,7 +9286,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>82</v>
@@ -9312,7 +9309,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>64</v>
@@ -9321,7 +9318,7 @@
         <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>82</v>
@@ -9344,7 +9341,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>64</v>
@@ -9353,7 +9350,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>82</v>
@@ -9376,7 +9373,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>64</v>
@@ -9385,7 +9382,7 @@
         <v>65</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>82</v>
@@ -9408,7 +9405,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>64</v>
@@ -9417,7 +9414,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>82</v>
@@ -9440,7 +9437,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>64</v>
@@ -9449,7 +9446,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>82</v>
@@ -9472,7 +9469,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>64</v>
@@ -9481,7 +9478,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>82</v>
@@ -9504,7 +9501,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>64</v>
@@ -9513,7 +9510,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>82</v>
@@ -9536,7 +9533,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>64</v>
@@ -9545,7 +9542,7 @@
         <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>82</v>
@@ -9568,7 +9565,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>64</v>
@@ -9577,7 +9574,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>82</v>

--- a/datf_core/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
+++ b/datf_core/test/s2t/s2t_30_csv_csv_3mill50cols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\QE_ATF\datf_core\test\s2t\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My_Workspaces\GitHub\DATF_Other\Databricks\QE_ATF\datf_core\test\s2t\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C356B2-CD6F-4D40-ACFF-A2A2C0C659FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAE5D4-B4E5-4766-BACC-82BBCBA5E829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{60D25328-0517-4E51-B966-9D3337769260}"/>
   </bookViews>
@@ -317,9 +317,6 @@
     <t>,</t>
   </si>
   <si>
-    <t>/app/test/data/target</t>
-  </si>
-  <si>
     <t>ArgentinaPropertiesTgt</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>lockin_period</t>
+  </si>
+  <si>
+    <t>test/data/target</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E28631E-9A8B-4B40-8EC8-AD01C3B31856}">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -982,7 +982,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1020,7 +1020,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1062,7 +1062,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1098,7 +1098,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1148,7 +1148,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1190,7 +1190,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1198,7 +1198,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1408,7 +1408,7 @@
         <v>65</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
@@ -1428,13 +1428,13 @@
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>67</v>
@@ -1448,13 +1448,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6">
         <v>4</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>67</v>
@@ -1468,13 +1468,13 @@
         <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6">
         <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>67</v>
@@ -1488,13 +1488,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6">
         <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>67</v>
@@ -1508,13 +1508,13 @@
         <v>65</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="6">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>67</v>
@@ -1528,7 +1528,7 @@
         <v>65</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
         <v>8</v>
@@ -1548,7 +1548,7 @@
         <v>65</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6">
         <v>9</v>
@@ -1568,7 +1568,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6">
         <v>10</v>
@@ -1588,7 +1588,7 @@
         <v>65</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6">
         <v>11</v>
@@ -1608,7 +1608,7 @@
         <v>65</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6">
         <v>12</v>
@@ -1628,7 +1628,7 @@
         <v>65</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6">
         <v>13</v>
@@ -1648,13 +1648,13 @@
         <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6">
         <v>14</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>67</v>
@@ -1668,13 +1668,13 @@
         <v>65</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6">
         <v>15</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>67</v>
@@ -1688,13 +1688,13 @@
         <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6">
         <v>16</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>67</v>
@@ -1708,13 +1708,13 @@
         <v>65</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="6">
         <v>17</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>67</v>
@@ -1728,13 +1728,13 @@
         <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6">
         <v>18</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>67</v>
@@ -1748,13 +1748,13 @@
         <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6">
         <v>19</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>67</v>
@@ -1768,7 +1768,7 @@
         <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="6">
         <v>20</v>
@@ -1788,7 +1788,7 @@
         <v>65</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6">
         <v>21</v>
@@ -1808,7 +1808,7 @@
         <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="6">
         <v>22</v>
@@ -1828,7 +1828,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6">
         <v>23</v>
@@ -1848,7 +1848,7 @@
         <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="6">
         <v>24</v>
@@ -1868,7 +1868,7 @@
         <v>65</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6">
         <v>25</v>
@@ -1888,13 +1888,13 @@
         <v>65</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="6">
         <v>26</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>67</v>
@@ -1908,13 +1908,13 @@
         <v>65</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="6">
         <v>27</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>67</v>
@@ -1928,13 +1928,13 @@
         <v>65</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="6">
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>67</v>
@@ -1948,13 +1948,13 @@
         <v>65</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="6">
         <v>29</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>67</v>
@@ -1968,13 +1968,13 @@
         <v>65</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="6">
         <v>30</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>67</v>
@@ -1988,7 +1988,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="6">
         <v>31</v>
@@ -2008,7 +2008,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="6">
         <v>32</v>
@@ -2028,7 +2028,7 @@
         <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="6">
         <v>33</v>
@@ -2048,7 +2048,7 @@
         <v>65</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="6">
         <v>34</v>
@@ -2068,7 +2068,7 @@
         <v>65</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="6">
         <v>35</v>
@@ -2088,13 +2088,13 @@
         <v>65</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="6">
         <v>36</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>67</v>
@@ -2108,13 +2108,13 @@
         <v>65</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="6">
         <v>37</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>67</v>
@@ -2128,13 +2128,13 @@
         <v>65</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6">
         <v>38</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>67</v>
@@ -2148,13 +2148,13 @@
         <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="6">
         <v>39</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>67</v>
@@ -2168,13 +2168,13 @@
         <v>65</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="6">
         <v>40</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>67</v>
@@ -2188,7 +2188,7 @@
         <v>65</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="6">
         <v>41</v>
@@ -2208,7 +2208,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="6">
         <v>42</v>
@@ -2228,7 +2228,7 @@
         <v>65</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6">
         <v>43</v>
@@ -2248,7 +2248,7 @@
         <v>65</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6">
         <v>44</v>
@@ -2268,7 +2268,7 @@
         <v>65</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="6">
         <v>45</v>
@@ -2288,13 +2288,13 @@
         <v>65</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="6">
         <v>46</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>67</v>
@@ -2308,7 +2308,7 @@
         <v>65</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6">
         <v>47</v>
@@ -2328,13 +2328,13 @@
         <v>65</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6">
         <v>48</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>67</v>
@@ -2348,7 +2348,7 @@
         <v>65</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="6">
         <v>49</v>
@@ -2368,7 +2368,7 @@
         <v>65</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="6">
         <v>50</v>
@@ -2382,10 +2382,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>68</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C53" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D53" s="6">
         <v>2</v>
@@ -2419,19 +2419,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C54" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D54" s="6">
         <v>3</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>67</v>
@@ -2439,19 +2439,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B55" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C55" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D55" s="6">
         <v>4</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>67</v>
@@ -2459,19 +2459,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B56" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C56" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>67</v>
@@ -2479,19 +2479,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B57" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C57" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" s="6">
         <v>6</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>67</v>
@@ -2499,19 +2499,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C58" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D58" s="6">
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>67</v>
@@ -2519,13 +2519,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B59" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C59" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D59" s="6">
         <v>8</v>
@@ -2539,13 +2539,13 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B60" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C60" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D60" s="6">
         <v>9</v>
@@ -2559,13 +2559,13 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C61" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D61" s="6">
         <v>10</v>
@@ -2579,13 +2579,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C62" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" s="6">
         <v>11</v>
@@ -2599,13 +2599,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C63" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D63" s="6">
         <v>12</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C64" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D64" s="6">
         <v>13</v>
@@ -2639,19 +2639,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C65" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D65" s="6">
         <v>14</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>67</v>
@@ -2659,19 +2659,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B66" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C66" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D66" s="6">
         <v>15</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>67</v>
@@ -2679,19 +2679,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C67" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D67" s="6">
         <v>16</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>67</v>
@@ -2699,19 +2699,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C68" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D68" s="6">
         <v>17</v>
       </c>
       <c r="E68" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>67</v>
@@ -2719,19 +2719,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C69" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D69" s="6">
         <v>18</v>
       </c>
       <c r="E69" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>67</v>
@@ -2739,19 +2739,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C70" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D70" s="6">
         <v>19</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>67</v>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C71" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D71" s="6">
         <v>20</v>
@@ -2779,13 +2779,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B72" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C72" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" s="6">
         <v>21</v>
@@ -2799,13 +2799,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C73" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D73" s="6">
         <v>22</v>
@@ -2819,13 +2819,13 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B74" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C74" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D74" s="6">
         <v>23</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B75" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C75" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D75" s="6">
         <v>24</v>
@@ -2859,13 +2859,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D76" s="6">
         <v>25</v>
@@ -2879,19 +2879,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C77" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D77" s="6">
         <v>26</v>
       </c>
       <c r="E77" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>67</v>
@@ -2899,19 +2899,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B78" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C78" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D78" s="6">
         <v>27</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>67</v>
@@ -2919,19 +2919,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C79" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="6">
         <v>28</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>67</v>
@@ -2939,19 +2939,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C80" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D80" s="6">
         <v>29</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>67</v>
@@ -2959,19 +2959,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C81" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D81" s="6">
         <v>30</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>67</v>
@@ -2979,13 +2979,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B82" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C82" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="6">
         <v>31</v>
@@ -2999,13 +2999,13 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B83" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C83" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="6">
         <v>32</v>
@@ -3019,13 +3019,13 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C84" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="6">
         <v>33</v>
@@ -3039,13 +3039,13 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C85" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="6">
         <v>34</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B86" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C86" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" s="6">
         <v>35</v>
@@ -3079,19 +3079,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C87" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="6">
         <v>36</v>
       </c>
       <c r="E87" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>67</v>
@@ -3099,19 +3099,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B88" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C88" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="6">
         <v>37</v>
       </c>
       <c r="E88" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>67</v>
@@ -3119,19 +3119,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C89" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="6">
         <v>38</v>
       </c>
       <c r="E89" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>67</v>
@@ -3139,19 +3139,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C90" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" s="6">
         <v>39</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>67</v>
@@ -3159,19 +3159,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B91" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C91" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" s="6">
         <v>40</v>
       </c>
       <c r="E91" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>67</v>
@@ -3179,13 +3179,13 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C92" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D92" s="6">
         <v>41</v>
@@ -3199,13 +3199,13 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B93" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C93" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D93" s="6">
         <v>42</v>
@@ -3219,13 +3219,13 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C94" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D94" s="6">
         <v>43</v>
@@ -3239,13 +3239,13 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C95" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D95" s="6">
         <v>44</v>
@@ -3259,13 +3259,13 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B96" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B96" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C96" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D96" s="6">
         <v>45</v>
@@ -3279,19 +3279,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B97" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C97" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" s="6">
         <v>46</v>
       </c>
       <c r="E97" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>67</v>
@@ -3299,13 +3299,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B98" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C98" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D98" s="6">
         <v>47</v>
@@ -3319,19 +3319,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B99" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C99" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D99" s="6">
         <v>48</v>
       </c>
       <c r="E99" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>67</v>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C100" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" s="6">
         <v>49</v>
@@ -3359,13 +3359,13 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B101" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B101" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C101" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D101" s="6">
         <v>50</v>
@@ -3402,7 +3402,7 @@
         <v>87</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D103" s="6">
         <v>2</v>
@@ -3422,13 +3422,13 @@
         <v>87</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D104" s="6">
         <v>3</v>
       </c>
       <c r="E104" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>67</v>
@@ -3442,13 +3442,13 @@
         <v>87</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D105" s="6">
         <v>4</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>67</v>
@@ -3462,13 +3462,13 @@
         <v>87</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D106" s="6">
         <v>5</v>
       </c>
       <c r="E106" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>67</v>
@@ -3482,13 +3482,13 @@
         <v>87</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D107" s="6">
         <v>6</v>
       </c>
       <c r="E107" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>67</v>
@@ -3502,13 +3502,13 @@
         <v>87</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D108" s="6">
         <v>7</v>
       </c>
       <c r="E108" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>67</v>
@@ -3522,7 +3522,7 @@
         <v>87</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D109" s="6">
         <v>8</v>
@@ -3542,7 +3542,7 @@
         <v>87</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D110" s="6">
         <v>9</v>
@@ -3562,7 +3562,7 @@
         <v>87</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D111" s="6">
         <v>10</v>
@@ -3582,7 +3582,7 @@
         <v>87</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D112" s="6">
         <v>11</v>
@@ -3602,7 +3602,7 @@
         <v>87</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D113" s="6">
         <v>12</v>
@@ -3622,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D114" s="6">
         <v>13</v>
@@ -3642,13 +3642,13 @@
         <v>87</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D115" s="6">
         <v>14</v>
       </c>
       <c r="E115" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>67</v>
@@ -3662,13 +3662,13 @@
         <v>87</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D116" s="6">
         <v>15</v>
       </c>
       <c r="E116" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>67</v>
@@ -3682,13 +3682,13 @@
         <v>87</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D117" s="6">
         <v>16</v>
       </c>
       <c r="E117" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>67</v>
@@ -3702,13 +3702,13 @@
         <v>87</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D118" s="6">
         <v>17</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>67</v>
@@ -3722,13 +3722,13 @@
         <v>87</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D119" s="6">
         <v>18</v>
       </c>
       <c r="E119" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>67</v>
@@ -3742,13 +3742,13 @@
         <v>87</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D120" s="6">
         <v>19</v>
       </c>
       <c r="E120" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>67</v>
@@ -3762,7 +3762,7 @@
         <v>87</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D121" s="6">
         <v>20</v>
@@ -3782,7 +3782,7 @@
         <v>87</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D122" s="6">
         <v>21</v>
@@ -3802,7 +3802,7 @@
         <v>87</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D123" s="6">
         <v>22</v>
@@ -3822,7 +3822,7 @@
         <v>87</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D124" s="6">
         <v>23</v>
@@ -3842,7 +3842,7 @@
         <v>87</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D125" s="6">
         <v>24</v>
@@ -3862,7 +3862,7 @@
         <v>87</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D126" s="6">
         <v>25</v>
@@ -3882,13 +3882,13 @@
         <v>87</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="6">
         <v>26</v>
       </c>
       <c r="E127" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F127" s="6" t="s">
         <v>67</v>
@@ -3902,13 +3902,13 @@
         <v>87</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="6">
         <v>27</v>
       </c>
       <c r="E128" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F128" s="6" t="s">
         <v>67</v>
@@ -3922,13 +3922,13 @@
         <v>87</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="6">
         <v>28</v>
       </c>
       <c r="E129" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>67</v>
@@ -3942,13 +3942,13 @@
         <v>87</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D130" s="6">
         <v>29</v>
       </c>
       <c r="E130" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F130" s="6" t="s">
         <v>67</v>
@@ -3962,13 +3962,13 @@
         <v>87</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D131" s="6">
         <v>30</v>
       </c>
       <c r="E131" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F131" s="6" t="s">
         <v>67</v>
@@ -3982,7 +3982,7 @@
         <v>87</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D132" s="6">
         <v>31</v>
@@ -4002,7 +4002,7 @@
         <v>87</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D133" s="6">
         <v>32</v>
@@ -4022,7 +4022,7 @@
         <v>87</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D134" s="6">
         <v>33</v>
@@ -4042,7 +4042,7 @@
         <v>87</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D135" s="6">
         <v>34</v>
@@ -4062,7 +4062,7 @@
         <v>87</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D136" s="6">
         <v>35</v>
@@ -4082,13 +4082,13 @@
         <v>87</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D137" s="6">
         <v>36</v>
       </c>
       <c r="E137" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>67</v>
@@ -4102,13 +4102,13 @@
         <v>87</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D138" s="6">
         <v>37</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F138" s="6" t="s">
         <v>67</v>
@@ -4122,13 +4122,13 @@
         <v>87</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="6">
         <v>38</v>
       </c>
       <c r="E139" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>67</v>
@@ -4142,13 +4142,13 @@
         <v>87</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D140" s="6">
         <v>39</v>
       </c>
       <c r="E140" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>67</v>
@@ -4162,13 +4162,13 @@
         <v>87</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D141" s="6">
         <v>40</v>
       </c>
       <c r="E141" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>67</v>
@@ -4182,7 +4182,7 @@
         <v>87</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D142" s="6">
         <v>41</v>
@@ -4202,7 +4202,7 @@
         <v>87</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D143" s="6">
         <v>42</v>
@@ -4222,7 +4222,7 @@
         <v>87</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D144" s="6">
         <v>43</v>
@@ -4242,7 +4242,7 @@
         <v>87</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D145" s="6">
         <v>44</v>
@@ -4262,7 +4262,7 @@
         <v>87</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" s="6">
         <v>45</v>
@@ -4282,13 +4282,13 @@
         <v>87</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" s="6">
         <v>46</v>
       </c>
       <c r="E147" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>67</v>
@@ -4302,7 +4302,7 @@
         <v>87</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" s="6">
         <v>47</v>
@@ -4322,13 +4322,13 @@
         <v>87</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="6">
         <v>48</v>
       </c>
       <c r="E149" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>67</v>
@@ -4342,7 +4342,7 @@
         <v>87</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="6">
         <v>49</v>
@@ -4362,7 +4362,7 @@
         <v>87</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="6">
         <v>50</v>
@@ -4465,10 +4465,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>68</v>
@@ -4497,13 +4497,13 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>64</v>
@@ -4512,7 +4512,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>82</v>
@@ -4529,13 +4529,13 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>64</v>
@@ -4544,7 +4544,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>82</v>
@@ -4561,13 +4561,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>64</v>
@@ -4576,7 +4576,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>82</v>
@@ -4593,13 +4593,13 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -4608,7 +4608,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>82</v>
@@ -4625,13 +4625,13 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>64</v>
@@ -4640,7 +4640,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -4657,13 +4657,13 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>64</v>
@@ -4672,7 +4672,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>82</v>
@@ -4689,13 +4689,13 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>64</v>
@@ -4704,7 +4704,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>82</v>
@@ -4721,13 +4721,13 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>64</v>
@@ -4736,7 +4736,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>82</v>
@@ -4753,13 +4753,13 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>64</v>
@@ -4768,7 +4768,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>82</v>
@@ -4785,13 +4785,13 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>64</v>
@@ -4800,7 +4800,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>82</v>
@@ -4817,13 +4817,13 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>64</v>
@@ -4832,7 +4832,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>82</v>
@@ -4849,13 +4849,13 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>64</v>
@@ -4864,7 +4864,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>82</v>
@@ -4881,13 +4881,13 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>64</v>
@@ -4896,7 +4896,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>82</v>
@@ -4913,13 +4913,13 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>64</v>
@@ -4928,7 +4928,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>82</v>
@@ -4945,13 +4945,13 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>64</v>
@@ -4960,7 +4960,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>82</v>
@@ -4977,13 +4977,13 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>64</v>
@@ -4992,7 +4992,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>82</v>
@@ -5009,13 +5009,13 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>64</v>
@@ -5024,7 +5024,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>82</v>
@@ -5041,13 +5041,13 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>64</v>
@@ -5056,7 +5056,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>82</v>
@@ -5073,13 +5073,13 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>64</v>
@@ -5088,7 +5088,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>82</v>
@@ -5105,13 +5105,13 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>64</v>
@@ -5120,7 +5120,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>82</v>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>64</v>
@@ -5152,7 +5152,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>82</v>
@@ -5169,13 +5169,13 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>64</v>
@@ -5184,7 +5184,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
@@ -5201,13 +5201,13 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>64</v>
@@ -5216,7 +5216,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>82</v>
@@ -5233,13 +5233,13 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
@@ -5248,7 +5248,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>82</v>
@@ -5265,13 +5265,13 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>64</v>
@@ -5280,7 +5280,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>82</v>
@@ -5297,13 +5297,13 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>64</v>
@@ -5312,7 +5312,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>82</v>
@@ -5329,13 +5329,13 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>64</v>
@@ -5344,7 +5344,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>82</v>
@@ -5361,13 +5361,13 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>64</v>
@@ -5376,7 +5376,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>82</v>
@@ -5393,13 +5393,13 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>64</v>
@@ -5408,7 +5408,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>82</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
@@ -5440,7 +5440,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>82</v>
@@ -5457,13 +5457,13 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>64</v>
@@ -5472,7 +5472,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>82</v>
@@ -5489,13 +5489,13 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>64</v>
@@ -5504,7 +5504,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>82</v>
@@ -5521,13 +5521,13 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>64</v>
@@ -5536,7 +5536,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>82</v>
@@ -5553,13 +5553,13 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>64</v>
@@ -5568,7 +5568,7 @@
         <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>82</v>
@@ -5585,13 +5585,13 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>64</v>
@@ -5600,7 +5600,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>82</v>
@@ -5617,13 +5617,13 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>64</v>
@@ -5632,7 +5632,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>82</v>
@@ -5649,13 +5649,13 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>64</v>
@@ -5664,7 +5664,7 @@
         <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>82</v>
@@ -5681,13 +5681,13 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
@@ -5696,7 +5696,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>82</v>
@@ -5713,13 +5713,13 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C41" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>64</v>
@@ -5728,7 +5728,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>82</v>
@@ -5745,13 +5745,13 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>64</v>
@@ -5760,7 +5760,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>82</v>
@@ -5777,13 +5777,13 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>64</v>
@@ -5792,7 +5792,7 @@
         <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>82</v>
@@ -5809,13 +5809,13 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>64</v>
@@ -5824,7 +5824,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>82</v>
@@ -5841,13 +5841,13 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>64</v>
@@ -5856,7 +5856,7 @@
         <v>65</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>82</v>
@@ -5873,13 +5873,13 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>64</v>
@@ -5888,7 +5888,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>82</v>
@@ -5905,13 +5905,13 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C47" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>64</v>
@@ -5920,7 +5920,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>82</v>
@@ -5937,13 +5937,13 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>64</v>
@@ -5952,7 +5952,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>82</v>
@@ -5969,13 +5969,13 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>64</v>
@@ -5984,7 +5984,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>82</v>
@@ -6001,13 +6001,13 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>64</v>
@@ -6016,7 +6016,7 @@
         <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>82</v>
@@ -6033,13 +6033,13 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>124</v>
-      </c>
       <c r="C51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>64</v>
@@ -6048,7 +6048,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>82</v>
@@ -8029,7 +8029,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>64</v>
@@ -8038,7 +8038,7 @@
         <v>65</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>82</v>
@@ -8061,7 +8061,7 @@
         <v>87</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>64</v>
@@ -8070,7 +8070,7 @@
         <v>65</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>82</v>
@@ -8093,7 +8093,7 @@
         <v>87</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>64</v>
@@ -8102,7 +8102,7 @@
         <v>65</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>82</v>
@@ -8125,7 +8125,7 @@
         <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>64</v>
@@ -8134,7 +8134,7 @@
         <v>65</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>82</v>
@@ -8157,7 +8157,7 @@
         <v>87</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>64</v>
@@ -8166,7 +8166,7 @@
         <v>65</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -8189,7 +8189,7 @@
         <v>87</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>64</v>
@@ -8198,7 +8198,7 @@
         <v>65</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>82</v>
@@ -8221,7 +8221,7 @@
         <v>87</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>64</v>
@@ -8230,7 +8230,7 @@
         <v>65</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>82</v>
@@ -8253,7 +8253,7 @@
         <v>87</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>64</v>
@@ -8262,7 +8262,7 @@
         <v>65</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>82</v>
@@ -8285,7 +8285,7 @@
         <v>87</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>64</v>
@@ -8294,7 +8294,7 @@
         <v>65</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>82</v>
@@ -8317,7 +8317,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>64</v>
@@ -8326,7 +8326,7 @@
         <v>65</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>82</v>
@@ -8349,7 +8349,7 @@
         <v>87</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>64</v>
@@ -8358,7 +8358,7 @@
         <v>65</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>82</v>
@@ -8381,7 +8381,7 @@
         <v>87</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>64</v>
@@ -8390,7 +8390,7 @@
         <v>65</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>82</v>
@@ -8413,7 +8413,7 @@
         <v>87</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>64</v>
@@ -8422,7 +8422,7 @@
         <v>65</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>82</v>
@@ -8445,7 +8445,7 @@
         <v>87</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>64</v>
@@ -8454,7 +8454,7 @@
         <v>65</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>82</v>
@@ -8477,7 +8477,7 @@
         <v>87</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>64</v>
@@ -8486,7 +8486,7 @@
         <v>65</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>82</v>
@@ -8509,7 +8509,7 @@
         <v>87</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>64</v>
@@ -8518,7 +8518,7 @@
         <v>65</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>82</v>
@@ -8541,7 +8541,7 @@
         <v>87</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>64</v>
@@ -8550,7 +8550,7 @@
         <v>65</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>82</v>
@@ -8573,7 +8573,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>64</v>
@@ -8582,7 +8582,7 @@
         <v>65</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>82</v>
@@ -8605,7 +8605,7 @@
         <v>87</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>64</v>
@@ -8614,7 +8614,7 @@
         <v>65</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>82</v>
@@ -8637,7 +8637,7 @@
         <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>64</v>
@@ -8646,7 +8646,7 @@
         <v>65</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>82</v>
@@ -8669,7 +8669,7 @@
         <v>87</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>64</v>
@@ -8678,7 +8678,7 @@
         <v>65</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>82</v>
@@ -8701,7 +8701,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>64</v>
@@ -8710,7 +8710,7 @@
         <v>65</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>82</v>
@@ -8733,7 +8733,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>64</v>
@@ -8742,7 +8742,7 @@
         <v>65</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>82</v>
@@ -8765,7 +8765,7 @@
         <v>87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>64</v>
@@ -8774,7 +8774,7 @@
         <v>65</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>82</v>
@@ -8797,7 +8797,7 @@
         <v>87</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>64</v>
@@ -8806,7 +8806,7 @@
         <v>65</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>82</v>
@@ -8829,7 +8829,7 @@
         <v>87</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>64</v>
@@ -8838,7 +8838,7 @@
         <v>65</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>82</v>
@@ -8861,7 +8861,7 @@
         <v>87</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>64</v>
@@ -8870,7 +8870,7 @@
         <v>65</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>82</v>
@@ -8893,7 +8893,7 @@
         <v>87</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="6" t="s">
         <v>64</v>
@@ -8902,7 +8902,7 @@
         <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>82</v>
@@ -8925,7 +8925,7 @@
         <v>87</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D31" s="6" t="s">
         <v>64</v>
@@ -8934,7 +8934,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>82</v>
@@ -8957,7 +8957,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>64</v>
@@ -8966,7 +8966,7 @@
         <v>65</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>82</v>
@@ -8989,7 +8989,7 @@
         <v>87</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="6" t="s">
         <v>64</v>
@@ -8998,7 +8998,7 @@
         <v>65</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>82</v>
@@ -9021,7 +9021,7 @@
         <v>87</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>64</v>
@@ -9030,7 +9030,7 @@
         <v>65</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>82</v>
@@ -9053,7 +9053,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>64</v>
@@ -9062,7 +9062,7 @@
         <v>65</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>82</v>
@@ -9085,7 +9085,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>64</v>
@@ -9094,7 +9094,7 @@
         <v>65</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>82</v>
@@ -9117,7 +9117,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>64</v>
@@ -9126,7 +9126,7 @@
         <v>65</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>82</v>
@@ -9149,7 +9149,7 @@
         <v>87</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>64</v>
@@ -9158,7 +9158,7 @@
         <v>65</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>82</v>
@@ -9181,7 +9181,7 @@
         <v>87</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>64</v>
@@ -9190,7 +9190,7 @@
         <v>65</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>82</v>
@@ -9213,7 +9213,7 @@
         <v>87</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>64</v>
@@ -9222,7 +9222,7 @@
         <v>65</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>82</v>
@@ -9245,7 +9245,7 @@
         <v>87</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>64</v>
@@ -9254,7 +9254,7 @@
         <v>65</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>82</v>
@@ -9277,7 +9277,7 @@
         <v>87</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>64</v>
@@ -9286,7 +9286,7 @@
         <v>65</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>82</v>
@@ -9309,7 +9309,7 @@
         <v>87</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>64</v>
@@ -9318,7 +9318,7 @@
         <v>65</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>82</v>
@@ -9341,7 +9341,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>64</v>
@@ -9350,7 +9350,7 @@
         <v>65</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>82</v>
@@ -9373,7 +9373,7 @@
         <v>87</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>64</v>
@@ -9382,7 +9382,7 @@
         <v>65</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" s="6" t="s">
         <v>82</v>
@@ -9405,7 +9405,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>64</v>
@@ -9414,7 +9414,7 @@
         <v>65</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G46" s="6" t="s">
         <v>82</v>
@@ -9437,7 +9437,7 @@
         <v>87</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="6" t="s">
         <v>64</v>
@@ -9446,7 +9446,7 @@
         <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>82</v>
@@ -9469,7 +9469,7 @@
         <v>87</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D48" s="6" t="s">
         <v>64</v>
@@ -9478,7 +9478,7 @@
         <v>65</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>82</v>
@@ -9501,7 +9501,7 @@
         <v>87</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>64</v>
@@ -9510,7 +9510,7 @@
         <v>65</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>82</v>
@@ -9533,7 +9533,7 @@
         <v>87</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>64</v>
@@ -9542,7 +9542,7 @@
         <v>65</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>82</v>
@@ -9565,7 +9565,7 @@
         <v>87</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>64</v>
@@ -9574,7 +9574,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>82</v>
